--- a/DATNFE/src/main/resources/excel/file test import/ListSpImport.xlsx
+++ b/DATNFE/src/main/resources/excel/file test import/ListSpImport.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27218"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="22" documentId="11_124D2FB4436296B0556CE7060CB2BE6159666A00" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C0B72EC-F37A-4BFB-A8B9-D498B073F66B}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="11_124D2FB4436296B0556CE7060CB2BE6159666A00" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5A07814-4726-4499-AE84-D381DF548605}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Tên</t>
   </si>
@@ -118,39 +118,6 @@
   </si>
   <si>
     <t>2023-11-27</t>
-  </si>
-  <si>
-    <t>Giày Cao Gót Balenciaga Black BB Pumps Velvet</t>
-  </si>
-  <si>
-    <t>TH08</t>
-  </si>
-  <si>
-    <t>GT1</t>
-  </si>
-  <si>
-    <t>CL11</t>
-  </si>
-  <si>
-    <t>DG7</t>
-  </si>
-  <si>
-    <t>MS9</t>
-  </si>
-  <si>
-    <t>XS7</t>
-  </si>
-  <si>
-    <t>KD1</t>
-  </si>
-  <si>
-    <t>11500000</t>
-  </si>
-  <si>
-    <t>1300000</t>
-  </si>
-  <si>
-    <t>1079000</t>
   </si>
 </sst>
 </file>
@@ -508,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15"/>
@@ -626,53 +593,6 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" t="s">
-        <v>26</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
